--- a/todo管理表.xlsx
+++ b/todo管理表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujisawa-kenichi\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="17580" windowHeight="5475" tabRatio="751"/>
+    <workbookView xWindow="0" yWindow="3900" windowWidth="17580" windowHeight="5472" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="9" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todo!$A$3:$Z$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -108,10 +113,6 @@
     <rPh sb="0" eb="2">
       <t>ニシザワ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基本設計</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -851,6 +852,23 @@
   <si>
     <t>西沢</t>
     <rPh sb="0" eb="2">
+      <t>ニシザワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リソースの翻訳</t>
+    <rPh sb="5" eb="7">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>降幡(西沢)</t>
+    <rPh sb="0" eb="2">
+      <t>フリハタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ニシザワ</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -859,13 +877,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,7 +1304,14 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1309,6 +1334,45 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0066FF"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1440,7 +1504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,9 +1536,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1506,6 +1571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1681,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1692,21 +1758,21 @@
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1718,10 +1784,10 @@
       </c>
       <c r="J1" s="34">
         <f ca="1">TODAY()</f>
-        <v>43536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -1739,7 +1805,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1771,13 +1837,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
@@ -1787,29 +1853,43 @@
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="26">
+        <v>43530</v>
+      </c>
+      <c r="E5" s="27">
+        <v>43536</v>
+      </c>
+      <c r="F5" s="26">
+        <v>43535</v>
+      </c>
+      <c r="G5" s="27">
+        <v>43536</v>
+      </c>
+      <c r="H5" s="28">
+        <v>6</v>
+      </c>
+      <c r="I5" s="28">
+        <v>6</v>
+      </c>
       <c r="J5" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D6" s="26">
         <v>43530</v>
@@ -1818,22 +1898,18 @@
         <v>43536</v>
       </c>
       <c r="F6" s="26">
-        <v>43535</v>
-      </c>
-      <c r="G6" s="27">
         <v>43536</v>
       </c>
+      <c r="G6" s="27"/>
       <c r="H6" s="28">
-        <v>6</v>
-      </c>
-      <c r="I6" s="28">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
@@ -1848,18 +1924,20 @@
         <v>43536</v>
       </c>
       <c r="F7" s="26">
-        <v>43536</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>43516</v>
+      </c>
+      <c r="G7" s="27">
+        <v>43537</v>
+      </c>
       <c r="H7" s="28">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -1874,58 +1952,56 @@
         <v>43536</v>
       </c>
       <c r="F8" s="26">
-        <v>43516</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>43525</v>
+      </c>
+      <c r="G8" s="27">
+        <v>43537</v>
+      </c>
       <c r="H8" s="28">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D9" s="26">
-        <v>43530</v>
-      </c>
-      <c r="E9" s="27">
-        <v>43536</v>
-      </c>
-      <c r="F9" s="26">
-        <v>43525</v>
-      </c>
-      <c r="G9" s="27">
-        <v>43531</v>
-      </c>
+        <v>43538</v>
+      </c>
+      <c r="E9" s="26">
+        <v>43558</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="26">
-        <v>43556</v>
+        <v>43549</v>
       </c>
       <c r="E10" s="26">
-        <v>43565</v>
+        <v>43553</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -1937,10 +2013,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>14</v>
@@ -1961,10 +2037,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>14</v>
@@ -1985,13 +2061,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="26">
         <v>43497</v>
@@ -2009,13 +2085,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="26">
         <v>43678</v>
@@ -2033,13 +2109,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="26">
         <v>43694</v>
@@ -2057,10 +2133,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>14</v>
@@ -2081,10 +2157,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>14</v>
@@ -2105,10 +2181,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>14</v>
@@ -2129,10 +2205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>14</v>
@@ -2153,10 +2229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>14</v>
@@ -2177,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="23"/>
@@ -2191,9 +2267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25" t="s">
@@ -2207,13 +2283,13 @@
       <c r="I22" s="30"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="26">
         <v>43475</v>
@@ -2231,13 +2307,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="26">
         <v>43537</v>
@@ -2255,13 +2331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="26">
         <v>43537</v>
@@ -2279,13 +2355,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="26">
         <v>43539</v>
@@ -2303,13 +2379,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="26">
         <v>43542</v>
@@ -2327,13 +2403,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="26">
         <v>43546</v>
@@ -2351,13 +2427,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="26">
         <v>43551</v>
@@ -2375,13 +2451,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="26">
         <v>43552</v>
@@ -2399,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="31" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -2413,13 +2489,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
@@ -2429,13 +2505,13 @@
       <c r="I32" s="30"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="26">
         <v>43536</v>
@@ -2453,13 +2529,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="26">
         <v>43537</v>
@@ -2477,13 +2553,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="26">
         <v>43531</v>
@@ -2503,13 +2579,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="27"/>
@@ -2521,13 +2597,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="27"/>
@@ -2539,13 +2615,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="27"/>
@@ -2557,13 +2633,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="27"/>
@@ -2575,13 +2651,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="27"/>
@@ -2595,13 +2671,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="27"/>
@@ -2615,13 +2691,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="27">
@@ -2637,13 +2713,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="26">
         <v>43739</v>
@@ -2659,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -2673,13 +2749,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
@@ -2689,13 +2765,13 @@
       <c r="I45" s="30"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="46" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="26">
         <v>43536</v>
@@ -2713,13 +2789,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="26">
         <v>43556</v>
@@ -2737,13 +2813,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="26">
         <v>43606</v>
@@ -2759,13 +2835,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="26">
         <v>43667</v>
@@ -2781,13 +2857,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="26">
         <v>43683</v>
@@ -2803,13 +2879,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="26">
         <v>43542</v>
@@ -2825,13 +2901,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="26">
         <v>43563</v>
@@ -2847,13 +2923,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="26">
         <v>43622</v>
@@ -2869,13 +2945,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="26">
         <v>43683</v>
@@ -2891,13 +2967,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="26">
         <v>43703</v>
@@ -2913,13 +2989,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="26">
         <v>43549</v>
@@ -2935,13 +3011,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="26">
         <v>43578</v>
@@ -2957,13 +3033,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="26">
         <v>43647</v>
@@ -2979,13 +3055,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="26">
         <v>43709</v>
@@ -3001,13 +3077,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="26">
         <v>43717</v>
@@ -3023,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="61" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -3037,9 +3113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="25" t="s">
@@ -3053,13 +3129,13 @@
       <c r="I62" s="30"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="63" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" s="26">
         <v>43542</v>
@@ -3077,13 +3153,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="64" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="26">
         <v>43544</v>
@@ -3101,13 +3177,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="26">
         <v>43563</v>
@@ -3125,13 +3201,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" s="26">
         <v>43565</v>
@@ -3147,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -3161,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="68" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -3175,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -3189,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -3203,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="71" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
@@ -3217,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="72" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -3231,13 +3307,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="27"/>
@@ -3247,13 +3323,13 @@
       <c r="I73" s="30"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="74" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="26">
         <v>43511</v>
@@ -3275,10 +3351,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="75" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
@@ -3291,10 +3367,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="76" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
@@ -3307,10 +3383,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="77" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23"/>
       <c r="B77" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
@@ -3323,10 +3399,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
@@ -3339,10 +3415,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="79" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
@@ -3355,10 +3431,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="80" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
@@ -3371,10 +3447,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="81" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
@@ -3387,10 +3463,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="82" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -3403,10 +3479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="83" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
@@ -3419,10 +3495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="84" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
@@ -3437,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="85" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
@@ -3451,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="86" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
@@ -3465,9 +3541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1">
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25" t="s">
@@ -3481,13 +3557,13 @@
       <c r="I87" s="30"/>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="88" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="27"/>
@@ -3499,13 +3575,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="89" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="27"/>
@@ -3517,13 +3593,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="90" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
@@ -3535,13 +3611,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="91" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
       <c r="B91" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="27"/>
@@ -3553,13 +3629,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="92" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23"/>
       <c r="B92" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="27"/>
@@ -3571,13 +3647,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="93" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23"/>
       <c r="B93" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
@@ -3589,13 +3665,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="94" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23"/>
       <c r="B94" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="27"/>
@@ -3607,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" collapsed="1">
+    <row r="95" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="25"/>
@@ -3621,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1">
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="25"/>
@@ -3633,7 +3709,7 @@
       <c r="I96" s="30"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1">
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="25"/>
@@ -3645,7 +3721,7 @@
       <c r="I97" s="31"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:10" ht="13.5" customHeight="1">
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E98" s="32" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3730,7 @@
       </c>
       <c r="H98" s="33">
         <f>SUM(H4:H97)</f>
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I98" s="33">
         <f>SUM(I4:I97)</f>
@@ -3668,58 +3744,119 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D4:G97">
-    <cfRule type="expression" dxfId="12" priority="11">
+  <conditionalFormatting sqref="D10:G97 D4:G8">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>D4&lt;$I$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:G97">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="F10:G97 F4:G8">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>IF($A4&lt;&gt;"",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>IF(MOD(ROW(),2)=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F97">
-    <cfRule type="expression" dxfId="9" priority="2">
+  <conditionalFormatting sqref="F10:F97 F4:F8">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$F4&lt;$D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$F4&gt;$D4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G97">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="G10:G97 G4:G8">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$G4&lt;$E4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>$G4&gt;$E4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:J97">
-    <cfRule type="expression" dxfId="5" priority="4662">
+  <conditionalFormatting sqref="A10:J97 A4:J8">
+    <cfRule type="expression" dxfId="13" priority="4677">
       <formula>IF($A4&lt;&gt;"",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:I97">
-    <cfRule type="expression" dxfId="4" priority="4729">
+  <conditionalFormatting sqref="A10:I97 A4:I8">
+    <cfRule type="expression" dxfId="12" priority="4744">
       <formula>IF(#REF!="",FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4730">
+    <cfRule type="expression" dxfId="11" priority="4745">
       <formula>IF(MOD(ROW(),2)=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J97">
-    <cfRule type="dataBar" priority="5078">
+  <conditionalFormatting sqref="J10:J97 J4:J8">
+    <cfRule type="dataBar" priority="5093">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6EA76C6E-0638-46DE-A275-8FCCCD4B9610}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:G9">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>D9&lt;$I$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>IF($A9&lt;&gt;"",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>IF(MOD(ROW(),2)=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$F9&lt;$D9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$F9&gt;$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$G9&lt;$E9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$G9&gt;$E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>IF($A9&lt;&gt;"",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>IF(#REF!="",FALSE,TRUE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>IF(MOD(ROW(),2)=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($A9&lt;&gt;"",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96372409-AD8D-472D-B42C-929AA5070773}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3738,7 +3875,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J4:J97</xm:sqref>
+          <xm:sqref>J10:J97 J4:J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96372409-AD8D-472D-B42C-929AA5070773}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/todo管理表.xlsx
+++ b/todo管理表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujisawa-kenichi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3900" windowWidth="17580" windowHeight="5472" tabRatio="751"/>
+    <workbookView xWindow="0" yWindow="3900" windowWidth="17580" windowHeight="5475" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="9" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todo!$A$3:$Z$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -877,13 +872,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,7 +1499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,10 +1531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1571,7 +1565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1747,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1761,18 +1754,18 @@
       <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1780,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -1805,7 +1798,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>72</v>
       </c>
@@ -1853,7 +1846,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
         <v>47</v>
@@ -1883,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>15</v>
@@ -1909,7 +1902,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A7" s="23"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
@@ -1937,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -1965,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>84</v>
@@ -1989,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>69</v>
@@ -2013,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
         <v>43</v>
@@ -2037,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A12" s="23"/>
       <c r="B12" s="24" t="s">
         <v>70</v>
@@ -2061,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
         <v>48</v>
@@ -2085,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>20</v>
@@ -2109,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
         <v>21</v>
@@ -2133,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
         <v>22</v>
@@ -2157,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
         <v>26</v>
@@ -2181,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
         <v>23</v>
@@ -2205,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
         <v>24</v>
@@ -2229,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
         <v>25</v>
@@ -2253,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="23"/>
@@ -2267,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2276,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
         <v>18</v>
@@ -2307,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
         <v>20</v>
@@ -2331,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
         <v>21</v>
@@ -2355,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
         <v>22</v>
@@ -2379,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
         <v>26</v>
@@ -2403,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
@@ -2427,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
         <v>24</v>
@@ -2451,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
         <v>25</v>
@@ -2475,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -2489,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
@@ -2505,7 +2498,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
         <v>50</v>
@@ -2529,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
         <v>56</v>
@@ -2553,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
         <v>30</v>
@@ -2579,7 +2572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
         <v>29</v>
@@ -2597,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
         <v>28</v>
@@ -2615,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="23"/>
       <c r="B38" s="24" t="s">
         <v>31</v>
@@ -2633,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
         <v>54</v>
@@ -2651,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="23"/>
       <c r="B40" s="24" t="s">
         <v>81</v>
@@ -2671,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
         <v>80</v>
@@ -2691,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A42" s="23"/>
       <c r="B42" s="24" t="s">
         <v>79</v>
@@ -2713,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="23"/>
       <c r="B43" s="24" t="s">
         <v>82</v>
@@ -2735,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" customHeight="1" collapsed="1">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -2749,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="23" t="s">
         <v>75</v>
       </c>
@@ -2765,7 +2758,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
         <v>37</v>
@@ -2789,7 +2782,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A47" s="23"/>
       <c r="B47" s="24" t="s">
         <v>77</v>
@@ -2813,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
         <v>38</v>
@@ -2835,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
         <v>39</v>
@@ -2857,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
         <v>40</v>
@@ -2879,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
         <v>41</v>
@@ -2901,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
         <v>77</v>
@@ -2923,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
         <v>38</v>
@@ -2945,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
         <v>39</v>
@@ -2967,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
         <v>40</v>
@@ -2989,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
         <v>42</v>
@@ -3011,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
         <v>77</v>
@@ -3033,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
         <v>38</v>
@@ -3055,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
         <v>39</v>
@@ -3077,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
         <v>40</v>
@@ -3099,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15" customHeight="1" collapsed="1">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -3113,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15" customHeight="1">
       <c r="A62" s="23" t="s">
         <v>74</v>
       </c>
@@ -3129,7 +3122,7 @@
       <c r="I62" s="30"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
         <v>52</v>
@@ -3153,7 +3146,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
         <v>51</v>
@@ -3177,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
         <v>53</v>
@@ -3201,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A66" s="23"/>
       <c r="B66" s="24" t="s">
         <v>54</v>
@@ -3223,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -3237,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -3251,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -3265,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -3279,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
@@ -3293,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15" customHeight="1" collapsed="1">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -3307,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15" customHeight="1">
       <c r="A73" s="23" t="s">
         <v>73</v>
       </c>
@@ -3323,7 +3316,7 @@
       <c r="I73" s="30"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
         <v>59</v>
@@ -3351,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
         <v>60</v>
@@ -3367,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
         <v>61</v>
@@ -3383,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A77" s="23"/>
       <c r="B77" s="24" t="s">
         <v>62</v>
@@ -3399,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
         <v>54</v>
@@ -3415,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
         <v>63</v>
@@ -3431,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
         <v>64</v>
@@ -3447,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
         <v>65</v>
@@ -3463,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
         <v>66</v>
@@ -3479,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
         <v>67</v>
@@ -3495,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
         <v>68</v>
@@ -3513,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
@@ -3527,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="15" customHeight="1" collapsed="1">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
@@ -3541,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="A87" s="23" t="s">
         <v>58</v>
       </c>
@@ -3557,7 +3550,7 @@
       <c r="I87" s="30"/>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
         <v>32</v>
@@ -3575,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
         <v>33</v>
@@ -3593,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
         <v>26</v>
@@ -3611,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A91" s="23"/>
       <c r="B91" s="24" t="s">
         <v>23</v>
@@ -3629,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A92" s="23"/>
       <c r="B92" s="24" t="s">
         <v>34</v>
@@ -3647,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A93" s="23"/>
       <c r="B93" s="24" t="s">
         <v>35</v>
@@ -3665,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A94" s="23"/>
       <c r="B94" s="24" t="s">
         <v>36</v>
@@ -3683,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="15" customHeight="1" collapsed="1">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="25"/>
@@ -3697,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="15" customHeight="1">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="25"/>
@@ -3709,7 +3702,7 @@
       <c r="I96" s="30"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15" customHeight="1">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="25"/>
@@ -3721,7 +3714,7 @@
       <c r="I97" s="31"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="13.5" customHeight="1">
       <c r="E98" s="32" t="s">
         <v>2</v>
       </c>
@@ -3789,8 +3782,8 @@
   <conditionalFormatting sqref="J10:J97 J4:J8">
     <cfRule type="dataBar" priority="5093">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -3850,8 +3843,8 @@
   <conditionalFormatting sqref="J9">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
